--- a/generacion_datos/Datos Banksy.xlsx
+++ b/generacion_datos/Datos Banksy.xlsx
@@ -5,34 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\VD---Final--Banksy-\generacion_datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7994620D-0F3B-44C8-8048-1EEC3E9C3A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3CE9A4-1B48-4E77-85DA-911FEF554B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$52</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="107">
-  <si>
-    <t>Nombre de la obra</t>
-  </si>
-  <si>
-    <t>Ubicación de la obra</t>
-  </si>
-  <si>
-    <t>Motivo de la obra</t>
-  </si>
-  <si>
-    <t>Técnica y estilo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="109">
   <si>
     <t>Estado</t>
   </si>
@@ -46,9 +37,6 @@
     <t>Season's Greeting</t>
   </si>
   <si>
-    <t>Million Pound Banksy Art Left in Shreds</t>
-  </si>
-  <si>
     <t>The Mild Mild West</t>
   </si>
   <si>
@@ -172,9 +160,6 @@
     <t>Policeman Searching Girl</t>
   </si>
   <si>
-    <t>Mona Lisa with Rocket Launcher</t>
-  </si>
-  <si>
     <t>I do not believe in Global Warming</t>
   </si>
   <si>
@@ -341,6 +326,30 @@
   </si>
   <si>
     <t>Imagen</t>
+  </si>
+  <si>
+    <t>Love is in the Bin</t>
+  </si>
+  <si>
+    <t>Tematica</t>
+  </si>
+  <si>
+    <t>Tecnica</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Devolved Parliament</t>
+  </si>
+  <si>
+    <t>Mona Lisa</t>
+  </si>
+  <si>
+    <t>Show Me The Monet</t>
   </si>
 </sst>
 </file>
@@ -348,7 +357,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="_-[$£-809]* #,##0_-;\-[$£-809]* #,##0_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0_-;\-[$£-809]* #,##0_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -410,23 +419,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -733,20 +738,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
@@ -754,1372 +759,1401 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="7"/>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>2020</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3">
         <v>6000000</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="6"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>2021</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3">
         <v>10000000</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>2020</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3">
         <v>300000</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>2019</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G5" s="3">
         <v>300000</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>2018</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="G6" s="3">
+        <v>100000</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>2018</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G7" s="3">
         <v>18582000</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>1999</v>
       </c>
       <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
         <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>2003</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3">
         <v>1300000</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>2008</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="G10" s="3">
+        <v>300000</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>2004</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2123270</v>
       </c>
       <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
         <v>58</v>
-      </c>
-      <c r="I11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <v>2003</v>
       </c>
       <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3">
+        <v>562750</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
         <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>2005</v>
       </c>
       <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
         <v>57</v>
-      </c>
-      <c r="H13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>2006</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>2011</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
         <v>58</v>
-      </c>
-      <c r="I15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>2006</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>2012</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <v>2004</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>2005</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
         <v>58</v>
-      </c>
-      <c r="I19" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>2011</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" t="s">
         <v>58</v>
-      </c>
-      <c r="I20" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>2007</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>2010</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
         <v>58</v>
-      </c>
-      <c r="I22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>2013</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s">
         <v>58</v>
-      </c>
-      <c r="I23" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>2002</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" t="s">
         <v>58</v>
-      </c>
-      <c r="I24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>2011</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" t="s">
         <v>58</v>
-      </c>
-      <c r="I25" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E26">
         <v>2003</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" t="s">
         <v>58</v>
-      </c>
-      <c r="I26" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>2011</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
         <v>58</v>
-      </c>
-      <c r="I27" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>2005</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G28" s="3">
         <v>2072000</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E29">
         <v>2010</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
         <v>58</v>
-      </c>
-      <c r="I29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>2008</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
         <v>58</v>
-      </c>
-      <c r="I30" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E31">
         <v>2014</v>
       </c>
       <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s">
         <v>56</v>
-      </c>
-      <c r="H31" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <v>2004</v>
       </c>
       <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s">
         <v>57</v>
-      </c>
-      <c r="H32" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E33">
         <v>2007</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E34">
         <v>2013</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E35">
         <v>2010</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" t="s">
         <v>58</v>
-      </c>
-      <c r="I35" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E36">
         <v>2008</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s">
         <v>58</v>
-      </c>
-      <c r="I36" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <v>2010</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E38">
         <v>2005</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" t="s">
         <v>58</v>
-      </c>
-      <c r="I38" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E39">
         <v>2003</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E40">
         <v>2010</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E41">
         <v>2008</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E42">
         <v>2008</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G42" s="3">
         <v>325000</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E43">
         <v>2006</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E44">
         <v>2008</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E45">
         <v>2013</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" t="s">
         <v>58</v>
-      </c>
-      <c r="I45" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E46">
         <v>2014</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E47">
         <v>2013</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" t="s">
         <v>58</v>
-      </c>
-      <c r="I47" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E48">
         <v>2007</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E49">
         <v>2006</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G49" s="3">
-        <v>1550000</v>
+        <v>419250</v>
       </c>
       <c r="H49" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E50">
         <v>2009</v>
       </c>
       <c r="F50" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I50" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E51">
         <v>2007</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I51" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
       <c r="C52" s="2"/>
+      <c r="G52" s="3">
+        <v>9879500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="3">
+        <v>7551600</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H52" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/generacion_datos/Datos Banksy.xlsx
+++ b/generacion_datos/Datos Banksy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\VD---Final--Banksy-\generacion_datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3CE9A4-1B48-4E77-85DA-911FEF554B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3E42B7-A8B1-44A7-BC67-668E4FDCA825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="109">
   <si>
     <t>Estado</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Sweep it Under the Carpet</t>
   </si>
   <si>
-    <t>Child Soldier</t>
-  </si>
-  <si>
     <t>Guantanamo Bay Detainee</t>
   </si>
   <si>
@@ -350,6 +347,9 @@
   </si>
   <si>
     <t>Show Me The Monet</t>
+  </si>
+  <si>
+    <t>Crayon Boy</t>
   </si>
 </sst>
 </file>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,96 +759,96 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>2020</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3">
         <v>6000000</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>2021</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3">
         <v>10000000</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -856,28 +856,28 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>2020</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="3">
         <v>300000</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -885,28 +885,28 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>2019</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3">
         <v>300000</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -914,57 +914,57 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>2018</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="3">
         <v>100000</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>2018</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3">
         <v>18582000</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -972,28 +972,28 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>1999</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="3">
         <v>300000</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1001,28 +1001,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>2003</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="3">
         <v>1300000</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1030,28 +1030,28 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>2008</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="3">
         <v>300000</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1059,28 +1059,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>2004</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3">
         <v>2123270</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1088,28 +1088,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>2003</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="3">
         <v>562750</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1117,25 +1117,25 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>2005</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1143,1010 +1143,1022 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>2006</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1500000</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>2011</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>2006</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>2012</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>2004</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>2005</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>2011</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>2007</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>2010</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>2013</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24">
         <v>2002</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <v>2011</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>2003</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27">
         <v>2011</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28">
         <v>2005</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="3">
         <v>2072000</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29">
         <v>2010</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30">
         <v>2008</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31">
         <v>2014</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>2004</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33">
         <v>2007</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34">
         <v>2013</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35">
         <v>2010</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36">
         <v>2008</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>2010</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38">
         <v>2005</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39">
         <v>2003</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E40">
         <v>2010</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41">
         <v>2008</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42">
         <v>2008</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" s="3">
         <v>325000</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43">
         <v>2006</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44">
         <v>2008</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E45">
         <v>2013</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46">
         <v>2014</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47">
         <v>2013</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <v>2007</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49">
         <v>2006</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G49" s="3">
         <v>419250</v>
       </c>
       <c r="H49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50">
         <v>2009</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51">
         <v>2007</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2"/>
+      <c r="E52">
+        <v>2009</v>
+      </c>
+      <c r="F52" t="s">
+        <v>49</v>
+      </c>
       <c r="G52" s="3">
         <v>9879500</v>
       </c>
+      <c r="H52" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G53" s="3">
         <v>7551600</v>
